--- a/Daily/Forecast/Non-Stationarity/Log-Price/sony.xlsx
+++ b/Daily/Forecast/Non-Stationarity/Log-Price/sony.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,41 +411,2501 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2707</v>
+        <v>2584</v>
       </c>
       <c r="B2">
-        <v>2707</v>
+        <v>2584</v>
       </c>
       <c r="C2">
-        <v>9.469522723690295</v>
+        <v>9.529794676017811</v>
       </c>
       <c r="D2">
-        <v>9.209258365364757</v>
+        <v>9.263489432831847</v>
       </c>
       <c r="E2">
-        <v>9.729787082015832</v>
+        <v>9.796099919203776</v>
       </c>
       <c r="F2">
-        <v>9.500394628573019</v>
+        <v>9.522958929717996</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
+        <v>2585</v>
+      </c>
+      <c r="B3">
+        <v>2585</v>
+      </c>
+      <c r="C3">
+        <v>9.52288057979229</v>
+      </c>
+      <c r="D3">
+        <v>9.25662679651175</v>
+      </c>
+      <c r="E3">
+        <v>9.789134363072829</v>
+      </c>
+      <c r="F3">
+        <v>9.527702598529375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2586</v>
+      </c>
+      <c r="B4">
+        <v>2586</v>
+      </c>
+      <c r="C4">
+        <v>9.527703747005871</v>
+      </c>
+      <c r="D4">
+        <v>9.26150138794171</v>
+      </c>
+      <c r="E4">
+        <v>9.793906106070033</v>
+      </c>
+      <c r="F4">
+        <v>9.50822026940441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>2587</v>
+      </c>
+      <c r="B5">
+        <v>2587</v>
+      </c>
+      <c r="C5">
+        <v>9.50806021926673</v>
+      </c>
+      <c r="D5">
+        <v>9.241908201692777</v>
+      </c>
+      <c r="E5">
+        <v>9.774212236840683</v>
+      </c>
+      <c r="F5">
+        <v>9.495519314209846</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>2588</v>
+      </c>
+      <c r="B6">
+        <v>2588</v>
+      </c>
+      <c r="C6">
+        <v>9.49527023736162</v>
+      </c>
+      <c r="D6">
+        <v>9.229168829384697</v>
+      </c>
+      <c r="E6">
+        <v>9.761371645338542</v>
+      </c>
+      <c r="F6">
+        <v>9.475776835480644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>2589</v>
+      </c>
+      <c r="B7">
+        <v>2589</v>
+      </c>
+      <c r="C7">
+        <v>9.475605471421479</v>
+      </c>
+      <c r="D7">
+        <v>9.20955481420849</v>
+      </c>
+      <c r="E7">
+        <v>9.741656128634469</v>
+      </c>
+      <c r="F7">
+        <v>9.471935109664646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>2590</v>
+      </c>
+      <c r="B8">
+        <v>2590</v>
+      </c>
+      <c r="C8">
+        <v>9.471876724634582</v>
+      </c>
+      <c r="D8">
+        <v>9.205877392427729</v>
+      </c>
+      <c r="E8">
+        <v>9.737876056841435</v>
+      </c>
+      <c r="F8">
+        <v>9.459541457609681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>2591</v>
+      </c>
+      <c r="B9">
+        <v>2591</v>
+      </c>
+      <c r="C9">
+        <v>9.459417584813487</v>
+      </c>
+      <c r="D9">
+        <v>9.19346915290631</v>
+      </c>
+      <c r="E9">
+        <v>9.725366016720663</v>
+      </c>
+      <c r="F9">
+        <v>9.484937204879309</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>2592</v>
+      </c>
+      <c r="B10">
+        <v>2592</v>
+      </c>
+      <c r="C10">
+        <v>9.485080318252377</v>
+      </c>
+      <c r="D10">
+        <v>9.219181352786588</v>
+      </c>
+      <c r="E10">
+        <v>9.750979283718166</v>
+      </c>
+      <c r="F10">
+        <v>9.476543412750839</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>2593</v>
+      </c>
+      <c r="B11">
+        <v>2593</v>
+      </c>
+      <c r="C11">
+        <v>9.476453326060787</v>
+      </c>
+      <c r="D11">
+        <v>9.210605474484368</v>
+      </c>
+      <c r="E11">
+        <v>9.742301177637206</v>
+      </c>
+      <c r="F11">
+        <v>9.470008697972764</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>2594</v>
+      </c>
+      <c r="B12">
+        <v>2594</v>
+      </c>
+      <c r="C12">
+        <v>9.469928230380505</v>
+      </c>
+      <c r="D12">
+        <v>9.204131414645756</v>
+      </c>
+      <c r="E12">
+        <v>9.735725046115254</v>
+      </c>
+      <c r="F12">
+        <v>9.497772413172754</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>2595</v>
+      </c>
+      <c r="B13">
+        <v>2595</v>
+      </c>
+      <c r="C13">
+        <v>9.497922265980938</v>
+      </c>
+      <c r="D13">
+        <v>9.232174604790737</v>
+      </c>
+      <c r="E13">
+        <v>9.763669927171138</v>
+      </c>
+      <c r="F13">
+        <v>9.487593248937424</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>2596</v>
+      </c>
+      <c r="B14">
+        <v>2596</v>
+      </c>
+      <c r="C14">
+        <v>9.48749509462586</v>
+      </c>
+      <c r="D14">
+        <v>9.221798327665251</v>
+      </c>
+      <c r="E14">
+        <v>9.753191861586469</v>
+      </c>
+      <c r="F14">
+        <v>9.496270911389157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>2597</v>
+      </c>
+      <c r="B15">
+        <v>2597</v>
+      </c>
+      <c r="C15">
+        <v>9.496295018235646</v>
+      </c>
+      <c r="D15">
+        <v>9.230649198552834</v>
+      </c>
+      <c r="E15">
+        <v>9.761940837918457</v>
+      </c>
+      <c r="F15">
+        <v>9.483796737163981</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>2598</v>
+      </c>
+      <c r="B16">
+        <v>2598</v>
+      </c>
+      <c r="C16">
+        <v>9.483686987921825</v>
+      </c>
+      <c r="D16">
+        <v>9.218091862570139</v>
+      </c>
+      <c r="E16">
+        <v>9.749282113273511</v>
+      </c>
+      <c r="F16">
+        <v>9.473089177882752</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>2599</v>
+      </c>
+      <c r="B17">
+        <v>2599</v>
+      </c>
+      <c r="C17">
+        <v>9.472962057107987</v>
+      </c>
+      <c r="D17">
+        <v>9.207417386256346</v>
+      </c>
+      <c r="E17">
+        <v>9.738506727959628</v>
+      </c>
+      <c r="F17">
+        <v>9.459541457609681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>2600</v>
+      </c>
+      <c r="B18">
+        <v>2600</v>
+      </c>
+      <c r="C18">
+        <v>9.459403712431689</v>
+      </c>
+      <c r="D18">
+        <v>9.193909757887235</v>
+      </c>
+      <c r="E18">
+        <v>9.724897666976142</v>
+      </c>
+      <c r="F18">
+        <v>9.447386828459384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>2601</v>
+      </c>
+      <c r="B19">
+        <v>2601</v>
+      </c>
+      <c r="C19">
+        <v>9.44727253877315</v>
+      </c>
+      <c r="D19">
+        <v>9.181829377079687</v>
+      </c>
+      <c r="E19">
+        <v>9.712715700466614</v>
+      </c>
+      <c r="F19">
+        <v>9.429475901892854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>2602</v>
+      </c>
+      <c r="B20">
+        <v>2602</v>
+      </c>
+      <c r="C20">
+        <v>9.429318268496104</v>
+      </c>
+      <c r="D20">
+        <v>9.163925218786213</v>
+      </c>
+      <c r="E20">
+        <v>9.694711318205995</v>
+      </c>
+      <c r="F20">
+        <v>9.473473571506551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>2603</v>
+      </c>
+      <c r="B21">
+        <v>2603</v>
+      </c>
+      <c r="C21">
+        <v>9.473704885152154</v>
+      </c>
+      <c r="D21">
+        <v>9.208357430124348</v>
+      </c>
+      <c r="E21">
+        <v>9.73905234017996</v>
+      </c>
+      <c r="F21">
+        <v>9.462654300590172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>2604</v>
+      </c>
+      <c r="B22">
+        <v>2604</v>
+      </c>
+      <c r="C22">
+        <v>9.462558444472574</v>
+      </c>
+      <c r="D22">
+        <v>9.197261611960329</v>
+      </c>
+      <c r="E22">
+        <v>9.727855276984819</v>
+      </c>
+      <c r="F22">
+        <v>9.487972108574462</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>2605</v>
+      </c>
+      <c r="B23">
+        <v>2605</v>
+      </c>
+      <c r="C23">
+        <v>9.488080164319715</v>
+      </c>
+      <c r="D23">
+        <v>9.22283247639414</v>
+      </c>
+      <c r="E23">
+        <v>9.75332785224529</v>
+      </c>
+      <c r="F23">
+        <v>9.492130118723125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>2606</v>
+      </c>
+      <c r="B24">
+        <v>2606</v>
+      </c>
+      <c r="C24">
+        <v>9.49212125277222</v>
+      </c>
+      <c r="D24">
+        <v>9.226924416096669</v>
+      </c>
+      <c r="E24">
+        <v>9.757318089447772</v>
+      </c>
+      <c r="F24">
+        <v>9.478457288933123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>2607</v>
+      </c>
+      <c r="B25">
+        <v>2607</v>
+      </c>
+      <c r="C25">
+        <v>9.478350113913638</v>
+      </c>
+      <c r="D25">
+        <v>9.213203623757458</v>
+      </c>
+      <c r="E25">
+        <v>9.743496604069819</v>
+      </c>
+      <c r="F25">
+        <v>9.481511892300974</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>2608</v>
+      </c>
+      <c r="B26">
+        <v>2608</v>
+      </c>
+      <c r="C26">
+        <v>9.481495021887145</v>
+      </c>
+      <c r="D26">
+        <v>9.216399307565627</v>
+      </c>
+      <c r="E26">
+        <v>9.746590736208663</v>
+      </c>
+      <c r="F26">
+        <v>9.49288426657184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>2609</v>
+      </c>
+      <c r="B27">
+        <v>2609</v>
+      </c>
+      <c r="C27">
+        <v>9.492915797008022</v>
+      </c>
+      <c r="D27">
+        <v>9.227870568741873</v>
+      </c>
+      <c r="E27">
+        <v>9.757961025274172</v>
+      </c>
+      <c r="F27">
+        <v>9.484557193474393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>2610</v>
+      </c>
+      <c r="B28">
+        <v>2610</v>
+      </c>
+      <c r="C28">
+        <v>9.484460883116027</v>
+      </c>
+      <c r="D28">
+        <v>9.219466093366362</v>
+      </c>
+      <c r="E28">
+        <v>9.749455672865691</v>
+      </c>
+      <c r="F28">
+        <v>9.484937204879309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>2611</v>
+      </c>
+      <c r="B29">
+        <v>2611</v>
+      </c>
+      <c r="C29">
+        <v>9.484908245407166</v>
+      </c>
+      <c r="D29">
+        <v>9.219964351910795</v>
+      </c>
+      <c r="E29">
+        <v>9.749852138903536</v>
+      </c>
+      <c r="F29">
+        <v>9.488729397516371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>2612</v>
+      </c>
+      <c r="B30">
+        <v>2612</v>
+      </c>
+      <c r="C30">
+        <v>9.48871891970288</v>
+      </c>
+      <c r="D30">
+        <v>9.223825707594489</v>
+      </c>
+      <c r="E30">
+        <v>9.75361213181127</v>
+      </c>
+      <c r="F30">
+        <v>9.475776835480644</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>2613</v>
+      </c>
+      <c r="B31">
+        <v>2613</v>
+      </c>
+      <c r="C31">
+        <v>9.47567548851084</v>
+      </c>
+      <c r="D31">
+        <v>9.210832503550856</v>
+      </c>
+      <c r="E31">
+        <v>9.740518473470823</v>
+      </c>
+      <c r="F31">
+        <v>9.496646498248033</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>2614</v>
+      </c>
+      <c r="B32">
+        <v>2614</v>
+      </c>
+      <c r="C32">
+        <v>9.496706361932011</v>
+      </c>
+      <c r="D32">
+        <v>9.231912565310314</v>
+      </c>
+      <c r="E32">
+        <v>9.761500158553709</v>
+      </c>
+      <c r="F32">
+        <v>9.508962384466297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>2615</v>
+      </c>
+      <c r="B33">
+        <v>2615</v>
+      </c>
+      <c r="C33">
+        <v>9.508996936496342</v>
+      </c>
+      <c r="D33">
+        <v>9.244253615658733</v>
+      </c>
+      <c r="E33">
+        <v>9.77374025733395</v>
+      </c>
+      <c r="F33">
+        <v>9.490620114661201</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>2616</v>
+      </c>
+      <c r="B34">
+        <v>2616</v>
+      </c>
+      <c r="C34">
+        <v>9.490490619130105</v>
+      </c>
+      <c r="D34">
+        <v>9.225796916513193</v>
+      </c>
+      <c r="E34">
+        <v>9.755184321747016</v>
+      </c>
+      <c r="F34">
+        <v>9.46769209462013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>2617</v>
+      </c>
+      <c r="B35">
+        <v>2617</v>
+      </c>
+      <c r="C35">
+        <v>9.467534488805752</v>
+      </c>
+      <c r="D35">
+        <v>9.202889967291732</v>
+      </c>
+      <c r="E35">
+        <v>9.732179010319772</v>
+      </c>
+      <c r="F35">
+        <v>9.466918699376629</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>2618</v>
+      </c>
+      <c r="B36">
+        <v>2618</v>
+      </c>
+      <c r="C36">
+        <v>9.466883759765004</v>
+      </c>
+      <c r="D36">
+        <v>9.202289786938136</v>
+      </c>
+      <c r="E36">
+        <v>9.731477732591872</v>
+      </c>
+      <c r="F36">
+        <v>9.46614470552994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>2619</v>
+      </c>
+      <c r="B37">
+        <v>2619</v>
+      </c>
+      <c r="C37">
+        <v>9.466105379207439</v>
+      </c>
+      <c r="D37">
+        <v>9.201561875637454</v>
+      </c>
+      <c r="E37">
+        <v>9.730648882777425</v>
+      </c>
+      <c r="F37">
+        <v>9.470779708034089</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>2620</v>
+      </c>
+      <c r="B38">
+        <v>2620</v>
+      </c>
+      <c r="C38">
+        <v>9.470774360824546</v>
+      </c>
+      <c r="D38">
+        <v>9.206281337559934</v>
+      </c>
+      <c r="E38">
+        <v>9.735267384089157</v>
+      </c>
+      <c r="F38">
+        <v>9.471550124096849</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>2621</v>
+      </c>
+      <c r="B39">
+        <v>2621</v>
+      </c>
+      <c r="C39">
+        <v>9.471523085559737</v>
+      </c>
+      <c r="D39">
+        <v>9.207080521986077</v>
+      </c>
+      <c r="E39">
+        <v>9.735965649133396</v>
+      </c>
+      <c r="F39">
+        <v>9.438670449977693</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>2622</v>
+      </c>
+      <c r="B40">
+        <v>2622</v>
+      </c>
+      <c r="C40">
+        <v>9.438450343158497</v>
+      </c>
+      <c r="D40">
+        <v>9.174055199504572</v>
+      </c>
+      <c r="E40">
+        <v>9.702845486812421</v>
+      </c>
+      <c r="F40">
+        <v>9.407139947950791</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>2623</v>
+      </c>
+      <c r="B41">
+        <v>2623</v>
+      </c>
+      <c r="C41">
+        <v>9.406907607493011</v>
+      </c>
+      <c r="D41">
+        <v>9.142560172130711</v>
+      </c>
+      <c r="E41">
+        <v>9.671255042855311</v>
+      </c>
+      <c r="F41">
+        <v>9.410829232725586</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>2624</v>
+      </c>
+      <c r="B42">
+        <v>2624</v>
+      </c>
+      <c r="C42">
+        <v>9.410822624355408</v>
+      </c>
+      <c r="D42">
+        <v>9.1465255211652</v>
+      </c>
+      <c r="E42">
+        <v>9.675119727545615</v>
+      </c>
+      <c r="F42">
+        <v>9.393494915074029</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>2625</v>
+      </c>
+      <c r="B43">
+        <v>2625</v>
+      </c>
+      <c r="C43">
+        <v>9.393355038190775</v>
+      </c>
+      <c r="D43">
+        <v>9.129107451549451</v>
+      </c>
+      <c r="E43">
+        <v>9.657602624832098</v>
+      </c>
+      <c r="F43">
+        <v>9.403437001938096</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>2626</v>
+      </c>
+      <c r="B44">
+        <v>2626</v>
+      </c>
+      <c r="C44">
+        <v>9.403440119340923</v>
+      </c>
+      <c r="D44">
+        <v>9.139242619313611</v>
+      </c>
+      <c r="E44">
+        <v>9.667637619368234</v>
+      </c>
+      <c r="F44">
+        <v>9.39391114817057</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>2627</v>
+      </c>
+      <c r="B45">
+        <v>2627</v>
+      </c>
+      <c r="C45">
+        <v>9.393822123967997</v>
+      </c>
+      <c r="D45">
+        <v>9.129674611918908</v>
+      </c>
+      <c r="E45">
+        <v>9.657969636017086</v>
+      </c>
+      <c r="F45">
+        <v>9.392661928770137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>2628</v>
+      </c>
+      <c r="B46">
+        <v>2628</v>
+      </c>
+      <c r="C46">
+        <v>9.392622445329714</v>
+      </c>
+      <c r="D46">
+        <v>9.128525179543754</v>
+      </c>
+      <c r="E46">
+        <v>9.656719711115674</v>
+      </c>
+      <c r="F46">
+        <v>9.398063978059133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>2629</v>
+      </c>
+      <c r="B47">
+        <v>2629</v>
+      </c>
+      <c r="C47">
+        <v>9.398054135247216</v>
+      </c>
+      <c r="D47">
+        <v>9.134007027377901</v>
+      </c>
+      <c r="E47">
+        <v>9.662101243116531</v>
+      </c>
+      <c r="F47">
+        <v>9.396819938918801</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>2630</v>
+      </c>
+      <c r="B48">
+        <v>2630</v>
+      </c>
+      <c r="C48">
+        <v>9.396781183860337</v>
+      </c>
+      <c r="D48">
+        <v>9.132784279668545</v>
+      </c>
+      <c r="E48">
+        <v>9.66077808805213</v>
+      </c>
+      <c r="F48">
+        <v>9.39391114817057</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>2631</v>
+      </c>
+      <c r="B49">
+        <v>2631</v>
+      </c>
+      <c r="C49">
+        <v>9.393850198933551</v>
+      </c>
+      <c r="D49">
+        <v>9.12990328989474</v>
+      </c>
+      <c r="E49">
+        <v>9.657797107972362</v>
+      </c>
+      <c r="F49">
+        <v>9.380926672551716</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>2632</v>
+      </c>
+      <c r="B50">
+        <v>2632</v>
+      </c>
+      <c r="C50">
+        <v>9.380816664669345</v>
+      </c>
+      <c r="D50">
+        <v>9.116919593437395</v>
+      </c>
+      <c r="E50">
+        <v>9.644713735901295</v>
+      </c>
+      <c r="F50">
+        <v>9.392661928770137</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>2633</v>
+      </c>
+      <c r="B51">
+        <v>2633</v>
+      </c>
+      <c r="C51">
+        <v>9.392701492896631</v>
+      </c>
+      <c r="D51">
+        <v>9.128854154663108</v>
+      </c>
+      <c r="E51">
+        <v>9.656548831130154</v>
+      </c>
+      <c r="F51">
+        <v>9.388486557359657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>2634</v>
+      </c>
+      <c r="B52">
+        <v>2634</v>
+      </c>
+      <c r="C52">
+        <v>9.388425396129426</v>
+      </c>
+      <c r="D52">
+        <v>9.124628050442759</v>
+      </c>
+      <c r="E52">
+        <v>9.652222741816093</v>
+      </c>
+      <c r="F52">
+        <v>9.395574350217172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>2635</v>
+      </c>
+      <c r="B53">
+        <v>2635</v>
+      </c>
+      <c r="C53">
+        <v>9.395584918156532</v>
+      </c>
+      <c r="D53">
+        <v>9.131837540203531</v>
+      </c>
+      <c r="E53">
+        <v>9.659332296109532</v>
+      </c>
+      <c r="F53">
+        <v>9.404672841436273</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>2636</v>
+      </c>
+      <c r="B54">
+        <v>2636</v>
+      </c>
+      <c r="C54">
+        <v>9.404694705841194</v>
+      </c>
+      <c r="D54">
+        <v>9.140997137374749</v>
+      </c>
+      <c r="E54">
+        <v>9.66839227430764</v>
+      </c>
+      <c r="F54">
+        <v>9.436280010592395</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>2637</v>
+      </c>
+      <c r="B55">
+        <v>2637</v>
+      </c>
+      <c r="C55">
+        <v>9.436442383279639</v>
+      </c>
+      <c r="D55">
+        <v>9.172792050394444</v>
+      </c>
+      <c r="E55">
+        <v>9.700092716164834</v>
+      </c>
+      <c r="F55">
+        <v>9.434683203865875</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>2638</v>
+      </c>
+      <c r="B56">
+        <v>2638</v>
+      </c>
+      <c r="C56">
+        <v>9.434641133082565</v>
+      </c>
+      <c r="D56">
+        <v>9.171040779380455</v>
+      </c>
+      <c r="E56">
+        <v>9.698241486784674</v>
+      </c>
+      <c r="F56">
+        <v>9.431882641923419</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>2639</v>
+      </c>
+      <c r="B57">
+        <v>2639</v>
+      </c>
+      <c r="C57">
+        <v>9.431834416238059</v>
+      </c>
+      <c r="D57">
+        <v>9.168283988991226</v>
+      </c>
+      <c r="E57">
+        <v>9.695384843484893</v>
+      </c>
+      <c r="F57">
+        <v>9.448569560708433</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>2640</v>
+      </c>
+      <c r="B58">
+        <v>2640</v>
+      </c>
+      <c r="C58">
+        <v>9.448639136434799</v>
+      </c>
+      <c r="D58">
+        <v>9.185137853042326</v>
+      </c>
+      <c r="E58">
+        <v>9.712140419827273</v>
+      </c>
+      <c r="F58">
+        <v>9.443830215344537</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>2641</v>
+      </c>
+      <c r="B59">
+        <v>2641</v>
+      </c>
+      <c r="C59">
+        <v>9.443768238819928</v>
+      </c>
+      <c r="D59">
+        <v>9.180316763471779</v>
+      </c>
+      <c r="E59">
+        <v>9.707219714168076</v>
+      </c>
+      <c r="F59">
+        <v>9.423433587436891</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>2642</v>
+      </c>
+      <c r="B60">
+        <v>2642</v>
+      </c>
+      <c r="C60">
+        <v>9.423278106321552</v>
+      </c>
+      <c r="D60">
+        <v>9.159875374561894</v>
+      </c>
+      <c r="E60">
+        <v>9.686680838081211</v>
+      </c>
+      <c r="F60">
+        <v>9.430679995957659</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>2643</v>
+      </c>
+      <c r="B61">
+        <v>2643</v>
+      </c>
+      <c r="C61">
+        <v>9.430692493608804</v>
+      </c>
+      <c r="D61">
+        <v>9.16733944157105</v>
+      </c>
+      <c r="E61">
+        <v>9.694045545646558</v>
+      </c>
+      <c r="F61">
+        <v>9.442641861075158</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>2644</v>
+      </c>
+      <c r="B62">
+        <v>2644</v>
+      </c>
+      <c r="C62">
+        <v>9.442681475890378</v>
+      </c>
+      <c r="D62">
+        <v>9.179377839223674</v>
+      </c>
+      <c r="E62">
+        <v>9.705985112557082</v>
+      </c>
+      <c r="F62">
+        <v>9.429074214801693</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>2645</v>
+      </c>
+      <c r="B63">
+        <v>2645</v>
+      </c>
+      <c r="C63">
+        <v>9.428962467172907</v>
+      </c>
+      <c r="D63">
+        <v>9.165708098470466</v>
+      </c>
+      <c r="E63">
+        <v>9.692216835875348</v>
+      </c>
+      <c r="F63">
+        <v>9.445017159104065</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>2646</v>
+      </c>
+      <c r="B64">
+        <v>2646</v>
+      </c>
+      <c r="C64">
+        <v>9.445076987518039</v>
+      </c>
+      <c r="D64">
+        <v>9.181871650663282</v>
+      </c>
+      <c r="E64">
+        <v>9.708282324372796</v>
+      </c>
+      <c r="F64">
+        <v>9.467305471765902</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>2647</v>
+      </c>
+      <c r="B65">
+        <v>2647</v>
+      </c>
+      <c r="C65">
+        <v>9.467407196577444</v>
+      </c>
+      <c r="D65">
+        <v>9.204250227166202</v>
+      </c>
+      <c r="E65">
+        <v>9.730564165988685</v>
+      </c>
+      <c r="F65">
+        <v>9.457590998633625</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>2648</v>
+      </c>
+      <c r="B66">
+        <v>2648</v>
+      </c>
+      <c r="C66">
+        <v>9.45750242009191</v>
+      </c>
+      <c r="D66">
+        <v>9.194394885437642</v>
+      </c>
+      <c r="E66">
+        <v>9.720609954746177</v>
+      </c>
+      <c r="F66">
+        <v>9.441452092939569</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>2649</v>
+      </c>
+      <c r="B67">
+        <v>2649</v>
+      </c>
+      <c r="C67">
+        <v>9.44134860428294</v>
+      </c>
+      <c r="D67">
+        <v>9.178289904564068</v>
+      </c>
+      <c r="E67">
+        <v>9.704407304001812</v>
+      </c>
+      <c r="F67">
+        <v>9.418979237087511</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>2650</v>
+      </c>
+      <c r="B68">
+        <v>2650</v>
+      </c>
+      <c r="C68">
+        <v>9.41880745680472</v>
+      </c>
+      <c r="D68">
+        <v>9.155797134192794</v>
+      </c>
+      <c r="E68">
+        <v>9.681817779416646</v>
+      </c>
+      <c r="F68">
+        <v>9.409191230721348</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>2651</v>
+      </c>
+      <c r="B69">
+        <v>2651</v>
+      </c>
+      <c r="C69">
+        <v>9.409097887201352</v>
+      </c>
+      <c r="D69">
+        <v>9.146136923079688</v>
+      </c>
+      <c r="E69">
+        <v>9.672058851323015</v>
+      </c>
+      <c r="F69">
+        <v>9.424644974623188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>2652</v>
+      </c>
+      <c r="B70">
+        <v>2652</v>
+      </c>
+      <c r="C70">
+        <v>9.424714545510181</v>
+      </c>
+      <c r="D70">
+        <v>9.16180248553866</v>
+      </c>
+      <c r="E70">
+        <v>9.687626605481702</v>
+      </c>
+      <c r="F70">
+        <v>9.414912537704957</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>2653</v>
+      </c>
+      <c r="B71">
+        <v>2653</v>
+      </c>
+      <c r="C71">
+        <v>9.414820360089097</v>
+      </c>
+      <c r="D71">
+        <v>9.151957602346075</v>
+      </c>
+      <c r="E71">
+        <v>9.677683117832119</v>
+      </c>
+      <c r="F71">
+        <v>9.425854896125902</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>2654</v>
+      </c>
+      <c r="B72">
+        <v>2654</v>
+      </c>
+      <c r="C72">
+        <v>9.425887828181049</v>
+      </c>
+      <c r="D72">
+        <v>9.163074220910978</v>
+      </c>
+      <c r="E72">
+        <v>9.688701435451119</v>
+      </c>
+      <c r="F72">
+        <v>9.411238314343073</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>2655</v>
+      </c>
+      <c r="B73">
+        <v>2655</v>
+      </c>
+      <c r="C73">
+        <v>9.411099118186861</v>
+      </c>
+      <c r="D73">
+        <v>9.148334258519876</v>
+      </c>
+      <c r="E73">
+        <v>9.673863977853847</v>
+      </c>
+      <c r="F73">
+        <v>9.412464556066316</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>2656</v>
+      </c>
+      <c r="B74">
+        <v>2656</v>
+      </c>
+      <c r="C74">
+        <v>9.412431217445244</v>
+      </c>
+      <c r="D74">
+        <v>9.149715902126156</v>
+      </c>
+      <c r="E74">
+        <v>9.675146532764332</v>
+      </c>
+      <c r="F74">
+        <v>9.40960098282706</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>2657</v>
+      </c>
+      <c r="B75">
+        <v>2657</v>
+      </c>
+      <c r="C75">
+        <v>9.409552445125396</v>
+      </c>
+      <c r="D75">
+        <v>9.146886671148257</v>
+      </c>
+      <c r="E75">
+        <v>9.672218219102534</v>
+      </c>
+      <c r="F75">
+        <v>9.414097209490203</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>2658</v>
+      </c>
+      <c r="B76">
+        <v>2658</v>
+      </c>
+      <c r="C76">
+        <v>9.414092402764455</v>
+      </c>
+      <c r="D76">
+        <v>9.151475987228757</v>
+      </c>
+      <c r="E76">
+        <v>9.676708818300153</v>
+      </c>
+      <c r="F76">
+        <v>9.401786836547139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>2659</v>
+      </c>
+      <c r="B77">
+        <v>2659</v>
+      </c>
+      <c r="C77">
+        <v>9.401681981033088</v>
+      </c>
+      <c r="D77">
+        <v>9.139114525436474</v>
+      </c>
+      <c r="E77">
+        <v>9.664249436629701</v>
+      </c>
+      <c r="F77">
+        <v>9.418979237087511</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>2660</v>
+      </c>
+      <c r="B78">
+        <v>2660</v>
+      </c>
+      <c r="C78">
+        <v>9.419058410625318</v>
+      </c>
+      <c r="D78">
+        <v>9.156539453962539</v>
+      </c>
+      <c r="E78">
+        <v>9.681577367288098</v>
+      </c>
+      <c r="F78">
+        <v>9.414097209490203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>2661</v>
+      </c>
+      <c r="B79">
+        <v>2661</v>
+      </c>
+      <c r="C79">
+        <v>9.414038264784201</v>
+      </c>
+      <c r="D79">
+        <v>9.151568624976273</v>
+      </c>
+      <c r="E79">
+        <v>9.67650790459213</v>
+      </c>
+      <c r="F79">
+        <v>9.44184883962202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>2662</v>
+      </c>
+      <c r="B80">
+        <v>2662</v>
+      </c>
+      <c r="C80">
+        <v>9.441964740461094</v>
+      </c>
+      <c r="D80">
+        <v>9.179542266690323</v>
+      </c>
+      <c r="E80">
+        <v>9.704387214231865</v>
+      </c>
+      <c r="F80">
+        <v>9.449750895754265</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>2663</v>
+      </c>
+      <c r="B81">
+        <v>2663</v>
+      </c>
+      <c r="C81">
+        <v>9.44975962115098</v>
+      </c>
+      <c r="D81">
+        <v>9.187386211607343</v>
+      </c>
+      <c r="E81">
+        <v>9.712133030694616</v>
+      </c>
+      <c r="F81">
+        <v>9.480749115757506</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>2664</v>
+      </c>
+      <c r="B82">
+        <v>2664</v>
+      </c>
+      <c r="C82">
+        <v>9.480875430377468</v>
+      </c>
+      <c r="D82">
+        <v>9.218548350314382</v>
+      </c>
+      <c r="E82">
+        <v>9.743202510440554</v>
+      </c>
+      <c r="F82">
+        <v>9.461099090323366</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>2665</v>
+      </c>
+      <c r="B83">
+        <v>2665</v>
+      </c>
+      <c r="C83">
+        <v>9.460956382395596</v>
+      </c>
+      <c r="D83">
+        <v>9.198677774470578</v>
+      </c>
+      <c r="E83">
+        <v>9.723234990320613</v>
+      </c>
+      <c r="F83">
+        <v>9.442245428958966</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>2666</v>
+      </c>
+      <c r="B84">
+        <v>2666</v>
+      </c>
+      <c r="C84">
+        <v>9.442080910439081</v>
+      </c>
+      <c r="D84">
+        <v>9.179850252185904</v>
+      </c>
+      <c r="E84">
+        <v>9.704311568692258</v>
+      </c>
+      <c r="F84">
+        <v>9.457590998633625</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>2667</v>
+      </c>
+      <c r="B85">
+        <v>2667</v>
+      </c>
+      <c r="C85">
+        <v>9.457644166437325</v>
+      </c>
+      <c r="D85">
+        <v>9.195462308924592</v>
+      </c>
+      <c r="E85">
+        <v>9.719826023950057</v>
+      </c>
+      <c r="F85">
+        <v>9.454853949026585</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>2668</v>
+      </c>
+      <c r="B86">
+        <v>2668</v>
+      </c>
+      <c r="C86">
+        <v>9.454806580871315</v>
+      </c>
+      <c r="D86">
+        <v>9.192673831572666</v>
+      </c>
+      <c r="E86">
+        <v>9.716939330169964</v>
+      </c>
+      <c r="F86">
+        <v>9.444621667700849</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>2669</v>
+      </c>
+      <c r="B87">
+        <v>2669</v>
+      </c>
+      <c r="C87">
+        <v>9.444535145905158</v>
+      </c>
+      <c r="D87">
+        <v>9.182451235858041</v>
+      </c>
+      <c r="E87">
+        <v>9.706619055952276</v>
+      </c>
+      <c r="F87">
+        <v>9.437874271591685</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>2670</v>
+      </c>
+      <c r="B88">
+        <v>2670</v>
+      </c>
+      <c r="C88">
+        <v>9.437802351301247</v>
+      </c>
+      <c r="D88">
+        <v>9.175767373019099</v>
+      </c>
+      <c r="E88">
+        <v>9.699837329583396</v>
+      </c>
+      <c r="F88">
+        <v>9.428672366293171</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>2671</v>
+      </c>
+      <c r="B89">
+        <v>2671</v>
+      </c>
+      <c r="C89">
+        <v>9.428590407010638</v>
+      </c>
+      <c r="D89">
+        <v>9.166604282053472</v>
+      </c>
+      <c r="E89">
+        <v>9.690576531967805</v>
+      </c>
+      <c r="F89">
+        <v>9.438272440022189</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>2672</v>
+      </c>
+      <c r="B90">
+        <v>2672</v>
+      </c>
+      <c r="C90">
+        <v>9.438294537994331</v>
+      </c>
+      <c r="D90">
+        <v>9.176357188952137</v>
+      </c>
+      <c r="E90">
+        <v>9.700231887036525</v>
+      </c>
+      <c r="F90">
+        <v>9.441452092939569</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>2673</v>
+      </c>
+      <c r="B91">
+        <v>2673</v>
+      </c>
+      <c r="C91">
+        <v>9.441438122052492</v>
+      </c>
+      <c r="D91">
+        <v>9.179549743114807</v>
+      </c>
+      <c r="E91">
+        <v>9.703326500990178</v>
+      </c>
+      <c r="F91">
+        <v>9.412872969386267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>2674</v>
+      </c>
+      <c r="B92">
+        <v>2674</v>
+      </c>
+      <c r="C92">
+        <v>9.412682845727232</v>
+      </c>
+      <c r="D92">
+        <v>9.150841204023701</v>
+      </c>
+      <c r="E92">
+        <v>9.674524487430764</v>
+      </c>
+      <c r="F92">
+        <v>9.402612259623305</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>2675</v>
+      </c>
+      <c r="B93">
+        <v>2675</v>
+      </c>
+      <c r="C93">
+        <v>9.402523976128879</v>
+      </c>
+      <c r="D93">
+        <v>9.140731003718768</v>
+      </c>
+      <c r="E93">
+        <v>9.664316948538991</v>
+      </c>
+      <c r="F93">
+        <v>9.410829232725586</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>2676</v>
+      </c>
+      <c r="B94">
+        <v>2676</v>
+      </c>
+      <c r="C94">
+        <v>9.410844828430298</v>
+      </c>
+      <c r="D94">
+        <v>9.149100586629602</v>
+      </c>
+      <c r="E94">
+        <v>9.672589070230993</v>
+      </c>
+      <c r="F94">
+        <v>9.427465850964829</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>2677</v>
+      </c>
+      <c r="B95">
+        <v>2677</v>
+      </c>
+      <c r="C95">
+        <v>9.427529203864458</v>
+      </c>
+      <c r="D95">
+        <v>9.165833098641945</v>
+      </c>
+      <c r="E95">
+        <v>9.68922530908697</v>
+      </c>
+      <c r="F95">
+        <v>9.456809748593889</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>2678</v>
+      </c>
+      <c r="B96">
+        <v>2678</v>
+      </c>
+      <c r="C96">
+        <v>9.456957203741947</v>
+      </c>
+      <c r="D96">
+        <v>9.195307605264587</v>
+      </c>
+      <c r="E96">
+        <v>9.718606802219307</v>
+      </c>
+      <c r="F96">
+        <v>9.461099090323366</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>2679</v>
+      </c>
+      <c r="B97">
+        <v>2679</v>
+      </c>
+      <c r="C97">
+        <v>9.461093729463119</v>
+      </c>
+      <c r="D97">
+        <v>9.199492928334731</v>
+      </c>
+      <c r="E97">
+        <v>9.722694530591507</v>
+      </c>
+      <c r="F97">
+        <v>9.479221814964246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>2680</v>
+      </c>
+      <c r="B98">
+        <v>2680</v>
+      </c>
+      <c r="C98">
+        <v>9.479307075613415</v>
+      </c>
+      <c r="D98">
+        <v>9.217754190989362</v>
+      </c>
+      <c r="E98">
+        <v>9.740859960237467</v>
+      </c>
+      <c r="F98">
+        <v>9.484557193474393</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>2681</v>
+      </c>
+      <c r="B99">
+        <v>2681</v>
+      </c>
+      <c r="C99">
+        <v>9.484555803145824</v>
+      </c>
+      <c r="D99">
+        <v>9.223051576357809</v>
+      </c>
+      <c r="E99">
+        <v>9.746060029933838</v>
+      </c>
+      <c r="F99">
+        <v>9.498897061838624</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>2682</v>
+      </c>
+      <c r="B100">
+        <v>2682</v>
+      </c>
+      <c r="C100">
+        <v>9.498957271131227</v>
+      </c>
+      <c r="D100">
+        <v>9.237501287437725</v>
+      </c>
+      <c r="E100">
+        <v>9.760413254824728</v>
+      </c>
+      <c r="F100">
+        <v>9.490997829490999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>2683</v>
+      </c>
+      <c r="B101">
+        <v>2683</v>
+      </c>
+      <c r="C101">
+        <v>9.490916390648687</v>
+      </c>
+      <c r="D101">
+        <v>9.2295089557386</v>
+      </c>
+      <c r="E101">
+        <v>9.752323825558774</v>
+      </c>
+      <c r="F101">
+        <v>9.47039427731049</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="1">
+        <v>2684</v>
+      </c>
+      <c r="B102">
+        <v>2684</v>
+      </c>
+      <c r="C102">
+        <v>9.470230035406606</v>
+      </c>
+      <c r="D102">
+        <v>9.208870153797188</v>
+      </c>
+      <c r="E102">
+        <v>9.731589917016025</v>
+      </c>
+      <c r="F102">
+        <v>9.445807672979225</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="1">
+        <v>2685</v>
+      </c>
+      <c r="B103">
+        <v>2685</v>
+      </c>
+      <c r="C103">
+        <v>9.445609917069683</v>
+      </c>
+      <c r="D103">
+        <v>9.184297067103168</v>
+      </c>
+      <c r="E103">
+        <v>9.706922767036199</v>
+      </c>
+      <c r="F103">
+        <v>9.440658127038393</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>2686</v>
+      </c>
+      <c r="B104">
+        <v>2686</v>
+      </c>
+      <c r="C104">
+        <v>9.440592329749846</v>
+      </c>
+      <c r="D104">
+        <v>9.179328065919195</v>
+      </c>
+      <c r="E104">
+        <v>9.701856593580496</v>
+      </c>
+      <c r="F104">
+        <v>9.489486113405677</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="1">
+        <v>2687</v>
+      </c>
+      <c r="B105">
+        <v>2687</v>
+      </c>
+      <c r="C105">
+        <v>9.489790344351578</v>
+      </c>
+      <c r="D105">
+        <v>9.228568125133314</v>
+      </c>
+      <c r="E105">
+        <v>9.751012563569841</v>
+      </c>
+      <c r="F105">
+        <v>9.488350824731233</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="1">
+        <v>2688</v>
+      </c>
+      <c r="B106">
+        <v>2688</v>
+      </c>
+      <c r="C106">
+        <v>9.488310119723993</v>
+      </c>
+      <c r="D106">
+        <v>9.227136531050013</v>
+      </c>
+      <c r="E106">
+        <v>9.749483708397973</v>
+      </c>
+      <c r="F106">
+        <v>9.479221814964246</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="1">
+        <v>2689</v>
+      </c>
+      <c r="B107">
+        <v>2689</v>
+      </c>
+      <c r="C107">
+        <v>9.479129430089554</v>
+      </c>
+      <c r="D107">
+        <v>9.218004182991889</v>
+      </c>
+      <c r="E107">
+        <v>9.740254677187218</v>
+      </c>
+      <c r="F107">
+        <v>9.467305471765902</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1">
+        <v>2690</v>
+      </c>
+      <c r="B108">
+        <v>2690</v>
+      </c>
+      <c r="C108">
+        <v>9.467193470666643</v>
+      </c>
+      <c r="D108">
+        <v>9.206116380462232</v>
+      </c>
+      <c r="E108">
+        <v>9.728270560871055</v>
+      </c>
+      <c r="F108">
+        <v>9.464594918315445</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1">
+        <v>2691</v>
+      </c>
+      <c r="B109">
+        <v>2691</v>
+      </c>
+      <c r="C109">
+        <v>9.464540190650952</v>
+      </c>
+      <c r="D109">
+        <v>9.203511525467391</v>
+      </c>
+      <c r="E109">
+        <v>9.725568855834513</v>
+      </c>
+      <c r="F109">
+        <v>9.473857817428666</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1">
+        <v>2692</v>
+      </c>
+      <c r="B110">
+        <v>2692</v>
+      </c>
+      <c r="C110">
+        <v>9.473890412573146</v>
+      </c>
+      <c r="D110">
+        <v>9.212910067282856</v>
+      </c>
+      <c r="E110">
+        <v>9.734870757863437</v>
+      </c>
+      <c r="F110">
+        <v>9.461099090323366</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1">
+        <v>2693</v>
+      </c>
+      <c r="B111">
+        <v>2693</v>
+      </c>
+      <c r="C111">
+        <v>9.460987698310657</v>
+      </c>
+      <c r="D111">
+        <v>9.20005534987034</v>
+      </c>
+      <c r="E111">
+        <v>9.721920046750974</v>
+      </c>
+      <c r="F111">
+        <v>9.45798139489078</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1">
+        <v>2694</v>
+      </c>
+      <c r="B112">
+        <v>2694</v>
+      </c>
+      <c r="C112">
+        <v>9.457929823546259</v>
+      </c>
+      <c r="D112">
+        <v>9.197045896625911</v>
+      </c>
+      <c r="E112">
+        <v>9.718813750466607</v>
+      </c>
+      <c r="F112">
+        <v>9.45915167003897</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1">
+        <v>2695</v>
+      </c>
+      <c r="B113">
+        <v>2695</v>
+      </c>
+      <c r="C113">
+        <v>9.459124766511538</v>
+      </c>
+      <c r="D113">
+        <v>9.198289193349844</v>
+      </c>
+      <c r="E113">
+        <v>9.719960339673232</v>
+      </c>
+      <c r="F113">
+        <v>9.452109387413557</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="1">
+        <v>2696</v>
+      </c>
+      <c r="B114">
+        <v>2696</v>
+      </c>
+      <c r="C114">
+        <v>9.452030561042505</v>
+      </c>
+      <c r="D114">
+        <v>9.191243280712659</v>
+      </c>
+      <c r="E114">
+        <v>9.712817841372352</v>
+      </c>
+      <c r="F114">
+        <v>9.458761730474661</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="1">
+        <v>2697</v>
+      </c>
+      <c r="B115">
+        <v>2697</v>
+      </c>
+      <c r="C115">
+        <v>9.458776080197474</v>
+      </c>
+      <c r="D115">
+        <v>9.198037029815726</v>
+      </c>
+      <c r="E115">
+        <v>9.719515130579222</v>
+      </c>
+      <c r="F115">
+        <v>9.450930836894113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
+      <c r="A116" s="1">
+        <v>2698</v>
+      </c>
+      <c r="B116">
+        <v>2698</v>
+      </c>
+      <c r="C116">
+        <v>9.45084306393194</v>
+      </c>
+      <c r="D116">
+        <v>9.190152118513669</v>
+      </c>
+      <c r="E116">
+        <v>9.71153400935021</v>
+      </c>
+      <c r="F116">
+        <v>9.43747594455993</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>2699</v>
+      </c>
+      <c r="B117">
+        <v>2699</v>
+      </c>
+      <c r="C117">
+        <v>9.437340086932078</v>
+      </c>
+      <c r="D117">
+        <v>9.176696787135707</v>
+      </c>
+      <c r="E117">
+        <v>9.697983386728449</v>
+      </c>
+      <c r="F117">
+        <v>9.443830215344537</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B118">
+        <v>2700</v>
+      </c>
+      <c r="C118">
+        <v>9.443708417043172</v>
+      </c>
+      <c r="D118">
+        <v>9.183112192344524</v>
+      </c>
+      <c r="E118">
+        <v>9.704304641741821</v>
+      </c>
+      <c r="F118">
+        <v>9.482654967296842</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>2701</v>
+      </c>
+      <c r="B119">
+        <v>2701</v>
+      </c>
+      <c r="C119">
+        <v>9.482894970831151</v>
+      </c>
+      <c r="D119">
+        <v>9.222344182128429</v>
+      </c>
+      <c r="E119">
+        <v>9.743445759533872</v>
+      </c>
+      <c r="F119">
+        <v>9.46614470552994</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>2702</v>
+      </c>
+      <c r="B120">
+        <v>2702</v>
+      </c>
+      <c r="C120">
+        <v>9.465999942569571</v>
+      </c>
+      <c r="D120">
+        <v>9.205496593754107</v>
+      </c>
+      <c r="E120">
+        <v>9.726503291385034</v>
+      </c>
+      <c r="F120">
+        <v>9.454853949026585</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>2703</v>
+      </c>
+      <c r="B121">
+        <v>2703</v>
+      </c>
+      <c r="C121">
+        <v>9.454745865024096</v>
+      </c>
+      <c r="D121">
+        <v>9.194290333666769</v>
+      </c>
+      <c r="E121">
+        <v>9.715201396381422</v>
+      </c>
+      <c r="F121">
+        <v>9.473857817428666</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>2704</v>
+      </c>
+      <c r="B122">
+        <v>2704</v>
+      </c>
+      <c r="C122">
+        <v>9.473947972499239</v>
+      </c>
+      <c r="D122">
+        <v>9.213539652022577</v>
+      </c>
+      <c r="E122">
+        <v>9.734356292975901</v>
+      </c>
+      <c r="F122">
+        <v>9.475776835480644</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>2705</v>
+      </c>
+      <c r="B123">
+        <v>2705</v>
+      </c>
+      <c r="C123">
+        <v>9.4757461575524</v>
+      </c>
+      <c r="D123">
+        <v>9.215385808227621</v>
+      </c>
+      <c r="E123">
+        <v>9.73610650687718</v>
+      </c>
+      <c r="F123">
+        <v>9.480367509189243</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>2706</v>
+      </c>
+      <c r="B124">
+        <v>2706</v>
+      </c>
+      <c r="C124">
+        <v>9.480366028427225</v>
+      </c>
+      <c r="D124">
+        <v>9.220053900846125</v>
+      </c>
+      <c r="E124">
+        <v>9.740678156008325</v>
+      </c>
+      <c r="F124">
+        <v>9.469622969906265</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>2707</v>
+      </c>
+      <c r="B125">
+        <v>2707</v>
+      </c>
+      <c r="C125">
+        <v>9.469522723690295</v>
+      </c>
+      <c r="D125">
+        <v>9.209258365364757</v>
+      </c>
+      <c r="E125">
+        <v>9.729787082015832</v>
+      </c>
+      <c r="F125">
+        <v>9.500394628573019</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
         <v>2708</v>
       </c>
-      <c r="B3">
+      <c r="B126">
         <v>2708</v>
       </c>
-      <c r="C3">
+      <c r="C126">
         <v>9.50054628336135</v>
       </c>
-      <c r="D3">
+      <c r="D126">
         <v>9.240327319110756</v>
       </c>
-      <c r="E3">
+      <c r="E126">
         <v>9.760765247611944</v>
       </c>
-      <c r="F3">
+      <c r="F126">
         <v>9.478457288933123</v>
       </c>
     </row>
